--- a/BOM/DataAcq-EnvBreakoutPCB.xlsx
+++ b/BOM/DataAcq-EnvBreakoutPCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi\Git\LHR\DataAcq-EnvBreakoutPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2724BBA4-0AEF-4150-8F13-753EDCC26FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327AFDA-25A1-464C-9535-2AF043525DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" activeTab="1" xr2:uid="{168CE6C0-8216-4EBB-AA83-A937DB0D91DC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{168CE6C0-8216-4EBB-AA83-A937DB0D91DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Full BOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Reference</t>
   </si>
@@ -71,21 +71,6 @@
     <t>APTD2012LCGCK</t>
   </si>
   <si>
-    <t>J1,J3</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_Nano-Fit_105309-xx04_1x04_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_Nano-Fit_105309-xx03_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -138,6 +123,18 @@
   </si>
   <si>
     <t xml:space="preserve">SHT45-AD1B-R3 </t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Breakout Connector</t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_Nano-Fit_105310-xx10_2x05_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>1053101110</t>
   </si>
 </sst>
 </file>
@@ -999,17 +996,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F2FE9-0D64-4C02-900F-134BCEC39D44}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.3828125" customWidth="1"/>
-    <col min="3" max="3" width="41.15234375" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.53515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1083,81 +1080,81 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1053091204</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>1053091103</v>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1168,49 +1165,35 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBF81EF-2499-4292-8145-88BDB74E7ED2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="147" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1241,47 +1224,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1053091204</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>1053091103</v>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1292,36 +1275,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/DataAcq-EnvBreakoutPCB.xlsx
+++ b/BOM/DataAcq-EnvBreakoutPCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi\Git\LHR\DataAcq-EnvBreakoutPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327AFDA-25A1-464C-9535-2AF043525DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83825D5F-120F-4291-88B9-67159F89E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{168CE6C0-8216-4EBB-AA83-A937DB0D91DC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Reference</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>1053101110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -996,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F2FE9-0D64-4C02-900F-134BCEC39D44}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A8" sqref="A8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1178,6 +1181,11 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/DataAcq-EnvBreakoutPCB.xlsx
+++ b/BOM/DataAcq-EnvBreakoutPCB.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi\Git\LHR\DataAcq-EnvBreakoutPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83825D5F-120F-4291-88B9-67159F89E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6BE30A50-2836-4317-9198-629F90641BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{168CE6C0-8216-4EBB-AA83-A937DB0D91DC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{B0F96E4E-130D-45BB-90E4-811D203B5041}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Shortened BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="DataAcq-EnvBreakoutPCB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Reference</t>
   </si>
@@ -29,67 +28,64 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
     <t>P/N</t>
   </si>
   <si>
-    <t>C1,C2,C4,C5,C7</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric</t>
+    <t>C1,C2,C3,C5,C6,C7</t>
+  </si>
+  <si>
+    <t>0.1u</t>
   </si>
   <si>
     <t>C0805C104M5RACTU</t>
   </si>
   <si>
-    <t>C3,C6</t>
-  </si>
-  <si>
-    <t>1uF</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>1u</t>
   </si>
   <si>
     <t>C0805C105K5PACTU</t>
   </si>
   <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
-    <t>-- mixed values --</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric</t>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>TMK212BBJ106MGHT</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>PWR</t>
   </si>
   <si>
     <t>APTD2012LCGCK</t>
   </si>
   <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>PESD3V3L4BHCYL</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>CRCW08051K00FKEAC</t>
-  </si>
-  <si>
-    <t>R2,R3</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>SDR10EZPF2200</t>
+    <t xml:space="preserve">RK73B2ATTE681J </t>
   </si>
   <si>
     <t>U1</t>
@@ -98,19 +94,10 @@
     <t>FS3000-1005</t>
   </si>
   <si>
-    <t>SamacSys_Parts:FS30001005</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>LMT87DCK</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>LMT87QDCKRQ1</t>
+    <t>MPL3115A2ST1</t>
   </si>
   <si>
     <t>U3</t>
@@ -119,25 +106,7 @@
     <t>SHT45</t>
   </si>
   <si>
-    <t>Sensor_Humidity:Sensirion_DFN-4_1.5x1.5mm_P0.8mm_SHT4x_NoCentralPad</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHT45-AD1B-R3 </t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>Breakout Connector</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_Nano-Fit_105310-xx10_2x05_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>1053101110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -623,7 +592,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -998,304 +969,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F2FE9-0D64-4C02-900F-134BCEC39D44}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39B8F33-8582-4811-8FB7-9244D3381EB3}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3828125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+      <c r="D7" s="1">
+        <v>1053091104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1">
+        <v>680</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E5" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBF81EF-2499-4292-8145-88BDB74E7ED2}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.61328125" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
-    <col min="5" max="5" width="19.53515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
